--- a/5.Other/BÁO GIÁ BẢO HÀNH ST/BJD240909003-205628-Vietnam Electronic Telecommunication and Technology J.S.C (1).xlsx
+++ b/5.Other/BÁO GIÁ BẢO HÀNH ST/BJD240909003-205628-Vietnam Electronic Telecommunication and Technology J.S.C (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEADER-SXBH\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\BÁO GIÁ BẢO HÀNH ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36D2DA-1BD5-4D9B-8B63-0258B72EB5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E9136-DB71-4F82-81AF-015F32D57936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="To Customer" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'To Customer'!$A$1:$I$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -382,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ "/>
-    <numFmt numFmtId="170" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -812,8 +799,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -831,13 +818,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -885,7 +872,7 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,87 +884,60 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -998,25 +958,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFC45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:K26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1482,18 +1469,18 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A4" s="8"/>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="9"/>
@@ -1509,14 +1496,14 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
@@ -1525,14 +1512,14 @@
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
@@ -1541,14 +1528,14 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="22.5" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
@@ -1557,14 +1544,14 @@
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
@@ -2058,32 +2045,32 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="39" customHeight="1">
-      <c r="B26" s="70">
+      <c r="B26" s="46">
         <v>15</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="70" t="s">
+      <c r="F26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="74" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="K26" s="76">
+      <c r="K26" s="52">
         <v>81.528722760170396</v>
       </c>
     </row>
@@ -2247,17 +2234,17 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
       <c r="K32" s="41" t="s">
         <v>96</v>
       </c>
@@ -2300,101 +2287,101 @@
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="67">
+      <c r="B36" s="58">
         <v>1</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="63"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="72" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="66"/>
     </row>
     <row r="38" spans="1:12" ht="22.5" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="68">
+      <c r="B38" s="59">
         <v>2</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="69"/>
     </row>
     <row r="39" spans="1:12" ht="22.5" customHeight="1">
       <c r="A39" s="8"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="61" t="s">
+      <c r="B39" s="59"/>
+      <c r="C39" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="22.5" customHeight="1">
       <c r="A40" s="8"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="61" t="s">
+      <c r="B40" s="59"/>
+      <c r="C40" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="70"/>
     </row>
     <row r="41" spans="1:12" ht="22.5" customHeight="1">
       <c r="A41" s="8"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="61" t="s">
+      <c r="B41" s="59"/>
+      <c r="C41" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="64"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="1:12" ht="22.5" customHeight="1">
       <c r="A42" s="8"/>
-      <c r="B42" s="69"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="27" t="s">
         <v>103</v>
       </c>
@@ -2422,36 +2409,46 @@
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1">
       <c r="A44" s="8"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B32:J32"/>
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="B44:K44"/>
     <mergeCell ref="B45:K45"/>
@@ -2462,16 +2459,6 @@
     <mergeCell ref="C38:K38"/>
     <mergeCell ref="C39:K39"/>
     <mergeCell ref="C40:K40"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait"/>
